--- a/DOC/PBN_JDB.xlsx
+++ b/DOC/PBN_JDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -153,12 +153,6 @@
     <t>Mise en place finale du CDC en pdf</t>
   </si>
   <si>
-    <t>Semaie 4</t>
-  </si>
-  <si>
-    <t>Semaie 5</t>
-  </si>
-  <si>
     <t>Discution avec M. Chevillat sur le camp, proposition de changement, commentaires négatifs et positifs</t>
   </si>
   <si>
@@ -201,9 +195,6 @@
     <t>Compréhension du site et de son fonctionnement, création du premier sprint</t>
   </si>
   <si>
-    <t>Semaie 6</t>
-  </si>
-  <si>
     <t>Lecture de documentations sur LINQ</t>
   </si>
   <si>
@@ -231,15 +222,9 @@
     <t>JDB et organisation du projet</t>
   </si>
   <si>
-    <t>Semaie 7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Information générale par M. Chevillat </t>
   </si>
   <si>
-    <t>Discution avec Philipe sur l'avancé respective du projet</t>
-  </si>
-  <si>
     <t>Ecriture du log</t>
   </si>
   <si>
@@ -268,6 +253,42 @@
   </si>
   <si>
     <t>Recherche / implementation de fonction LINQ qui permetent de chercher l'extentions des fichiers</t>
+  </si>
+  <si>
+    <t>Semaine 6</t>
+  </si>
+  <si>
+    <t>Semaine 5</t>
+  </si>
+  <si>
+    <t>Semaine 4</t>
+  </si>
+  <si>
+    <t>Semaine X</t>
+  </si>
+  <si>
+    <t>Semaiene X</t>
+  </si>
+  <si>
+    <t>Vacances 2 semaines</t>
+  </si>
+  <si>
+    <t>Semaine 7</t>
+  </si>
+  <si>
+    <t>Discution avec Quantin sur l'avancé respective du projet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amelioré la fonction recherche avec ou sans filtre specifique </t>
+  </si>
+  <si>
+    <t>Mise à jour du journal</t>
+  </si>
+  <si>
+    <t>(vacances + corrections divers)</t>
+  </si>
+  <si>
+    <t>Inegration du log la semain prochaine si possible</t>
   </si>
 </sst>
 </file>
@@ -313,7 +334,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -597,11 +618,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -671,39 +718,9 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -712,15 +729,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -749,11 +757,83 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,16 +1157,16 @@
     <col min="2" max="2" width="9.5703125" style="26" customWidth="1"/>
     <col min="3" max="3" width="75.28515625" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="42.42578125" customWidth="1"/>
+    <col min="5" max="5" width="55" customWidth="1"/>
     <col min="6" max="6" width="58.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
       <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1095,9 +1175,9 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1144,12 +1224,12 @@
         <f>SUM(B8:B13)</f>
         <v>0.10069444444444445</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="58">
+      <c r="A8" s="49">
         <v>43343</v>
       </c>
       <c r="B8" s="27">
@@ -1162,7 +1242,7 @@
       <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="21">
         <v>1.7361111111111112E-2</v>
       </c>
@@ -1175,7 +1255,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="20">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -1186,7 +1266,7 @@
       <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="20">
         <v>1.3888888888888888E-2</v>
       </c>
@@ -1197,7 +1277,7 @@
       <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="20">
         <v>1.7361111111111112E-2</v>
       </c>
@@ -1208,7 +1288,7 @@
       <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="56"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="17">
         <v>3.125E-2</v>
       </c>
@@ -1226,14 +1306,14 @@
         <f>SUM(B15:B23)</f>
         <v>0.1875</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58">
+      <c r="A15" s="49">
         <v>43347</v>
       </c>
       <c r="B15" s="25">
@@ -1248,7 +1328,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="20">
         <v>3.4722222222222224E-2</v>
       </c>
@@ -1260,7 +1340,7 @@
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="20">
         <v>1.7361111111111112E-2</v>
       </c>
@@ -1272,7 +1352,7 @@
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="20">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -1285,7 +1365,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="59">
+      <c r="A19" s="50">
         <v>43350</v>
       </c>
       <c r="B19" s="25">
@@ -1298,7 +1378,7 @@
       <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="25">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -1311,7 +1391,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="25">
         <v>6.9444444444444441E-3</v>
       </c>
@@ -1322,7 +1402,7 @@
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="25">
         <v>1.3888888888888888E-2</v>
       </c>
@@ -1333,7 +1413,7 @@
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="56"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="20">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -1351,14 +1431,14 @@
         <f>SUM(B25:B34)</f>
         <v>0.1875</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="58">
+      <c r="A25" s="49">
         <v>43354</v>
       </c>
       <c r="B25" s="21">
@@ -1368,12 +1448,12 @@
         <v>33</v>
       </c>
       <c r="D25" s="16"/>
-      <c r="E25" s="38"/>
+      <c r="E25" s="29"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="21">
         <v>6.9444444444444441E-3</v>
       </c>
@@ -1386,7 +1466,7 @@
       <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -1394,14 +1474,14 @@
         <v>35</v>
       </c>
       <c r="D27" s="16"/>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="51" t="s">
         <v>36</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="21">
         <v>3.4722222222222224E-2</v>
       </c>
@@ -1409,22 +1489,22 @@
         <v>37</v>
       </c>
       <c r="D28" s="16"/>
-      <c r="E28" s="39"/>
+      <c r="E28" s="51"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="21">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D29" s="16"/>
-      <c r="E29" s="39"/>
+      <c r="E29" s="51"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="59">
+      <c r="A30" s="50">
         <v>43357</v>
       </c>
       <c r="B30" s="21">
@@ -1437,7 +1517,7 @@
       <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -1445,12 +1525,12 @@
         <v>39</v>
       </c>
       <c r="D31" s="16"/>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="51" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="21">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -1458,10 +1538,10 @@
         <v>41</v>
       </c>
       <c r="D32" s="15"/>
-      <c r="E32" s="39"/>
+      <c r="E32" s="51"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -1469,10 +1549,10 @@
         <v>42</v>
       </c>
       <c r="D33" s="15"/>
-      <c r="E33" s="39"/>
+      <c r="E33" s="51"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="56"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="21">
         <v>1.3888888888888888E-2</v>
       </c>
@@ -1484,507 +1564,579 @@
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="46"/>
+        <v>81</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="52"/>
+      <c r="E35" s="53"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B36" s="22">
         <f>SUM(B37:B47)</f>
         <v>0.1875</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="31"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="58">
+      <c r="A37" s="49">
         <v>43368</v>
       </c>
       <c r="B37" s="21">
         <v>3.125E-2</v>
       </c>
       <c r="C37" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
+      <c r="A39" s="50"/>
       <c r="B39" s="21">
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
+      <c r="A40" s="50"/>
       <c r="B40" s="21">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
+      <c r="A41" s="50"/>
       <c r="B41" s="21">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="59">
+      <c r="A42" s="50">
         <v>43371</v>
       </c>
       <c r="B42" s="21">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="59"/>
+      <c r="A43" s="50"/>
       <c r="B43" s="21">
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
+      <c r="A44" s="50"/>
       <c r="B44" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="21">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="59"/>
+      <c r="A46" s="50"/>
       <c r="B46" s="21">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="56"/>
-      <c r="B47" s="40">
+      <c r="A47" s="47"/>
+      <c r="B47" s="30">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="C47" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="42"/>
-      <c r="E47" s="43"/>
+      <c r="C47" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="32"/>
+      <c r="E47" s="33"/>
     </row>
     <row r="48" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B48" s="22">
-        <f>SUM(B49:B66)</f>
-        <v>0.31597222222222227</v>
-      </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="31"/>
+        <f>SUM(B49:B60)</f>
+        <v>9.3750000000000014E-2</v>
+      </c>
+      <c r="C48" s="54"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="56"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="57">
+      <c r="A49" s="48">
         <v>43375</v>
       </c>
       <c r="B49" s="21">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="21">
         <v>2.4305555555555556E-2</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E50" s="13"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
+      <c r="A51" s="48"/>
       <c r="B51" s="21">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="13"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="57"/>
+      <c r="A52" s="48"/>
       <c r="B52" s="21">
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="13"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="57"/>
+      <c r="A53" s="48"/>
       <c r="B53" s="21">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D53" s="16"/>
-      <c r="E53" s="44" t="s">
-        <v>68</v>
+      <c r="E53" s="57" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
+      <c r="A54" s="49"/>
       <c r="B54" s="21">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D54" s="16"/>
-      <c r="E54" s="44"/>
+      <c r="E54" s="57"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="56">
+      <c r="A55" s="47">
         <v>43378</v>
       </c>
       <c r="B55" s="21"/>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
-      <c r="E55" s="38"/>
+      <c r="E55" s="29"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="57"/>
+      <c r="A56" s="48"/>
       <c r="B56" s="21"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
-      <c r="E56" s="38"/>
+      <c r="E56" s="29"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="57"/>
+      <c r="A57" s="48"/>
       <c r="B57" s="21"/>
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
-      <c r="E57" s="38"/>
+      <c r="E57" s="29"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
+      <c r="A58" s="48"/>
       <c r="B58" s="21"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
-      <c r="E58" s="38"/>
+      <c r="E58" s="29"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="57"/>
+      <c r="A59" s="48"/>
       <c r="B59" s="21"/>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
-      <c r="E59" s="38"/>
+      <c r="E59" s="29"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="57"/>
+      <c r="A60" s="48"/>
       <c r="B60" s="21"/>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
-      <c r="E60" s="38"/>
+      <c r="E60" s="29"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="24" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B61" s="22">
-        <f>SUM(B62:B74)</f>
+        <f>SUM(B62:B71)</f>
         <v>0.12847222222222224</v>
       </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="31"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="56"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="57">
+      <c r="A62" s="64">
         <v>43382</v>
       </c>
       <c r="B62" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D62" s="16"/>
       <c r="E62" s="13"/>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="57"/>
+      <c r="A63" s="48"/>
       <c r="B63" s="21">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D63" s="16"/>
       <c r="E63" s="13"/>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="57"/>
+      <c r="A64" s="48"/>
       <c r="B64" s="21">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D64" s="16"/>
       <c r="E64" s="13"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
+      <c r="A65" s="48"/>
       <c r="B65" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D65" s="16"/>
       <c r="E65" s="13"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="58"/>
+      <c r="A66" s="49"/>
       <c r="B66" s="21">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D66" s="16"/>
       <c r="E66" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="47">
+        <v>43385</v>
+      </c>
+      <c r="B67" s="35">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C67" s="36" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="56">
-        <v>43385</v>
-      </c>
-      <c r="B67" s="48">
+      <c r="D67" s="36"/>
+      <c r="E67" s="37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="48"/>
+      <c r="B68" s="38">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" s="39"/>
+      <c r="E68" s="40"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="48"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="40"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="48"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="40"/>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="49"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="42"/>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" s="52"/>
+      <c r="E72" s="53"/>
+    </row>
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="66">
+        <f>SUM(B74:B85)</f>
+        <v>0.1736111111111111</v>
+      </c>
+      <c r="C73" s="54"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="56"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="43">
+        <v>43404</v>
+      </c>
+      <c r="B74" s="21">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C74" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74" s="36"/>
+      <c r="E74" s="37"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="44"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="68"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="44"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="68"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="44"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="68"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="45"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="70"/>
+      <c r="E78" s="71"/>
+    </row>
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="43">
+        <v>43375</v>
+      </c>
+      <c r="B79" s="35">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C79" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D79" s="36"/>
+      <c r="E79" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="44"/>
+      <c r="B80" s="21">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D80" s="16"/>
+      <c r="E80" s="68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="44"/>
+      <c r="B81" s="21">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="68"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="44"/>
+      <c r="B82" s="21">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="68"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="45"/>
+      <c r="B83" s="69">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C67" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="D67" s="49"/>
-      <c r="E67" s="50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="57"/>
-      <c r="B68" s="51">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C68" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D68" s="52"/>
-      <c r="E68" s="53"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="57"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="53"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="57"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="53"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="58"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="55"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72"/>
-      <c r="B72"/>
-    </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73"/>
-      <c r="B73"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74"/>
-      <c r="B74"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75"/>
-      <c r="B75"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76"/>
-      <c r="B76"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77"/>
-      <c r="B77"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78"/>
-      <c r="B78"/>
-    </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79"/>
-      <c r="B79"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80"/>
-      <c r="B80"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81"/>
-      <c r="B81"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82"/>
-      <c r="B82"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83"/>
-      <c r="B83"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83" s="70"/>
+      <c r="D83" s="70"/>
+      <c r="E83" s="71"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85"/>
       <c r="B85"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86"/>
       <c r="B86"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87"/>
       <c r="B87"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88"/>
       <c r="B88"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89"/>
       <c r="B89"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90"/>
       <c r="B90"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91"/>
       <c r="B91"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92"/>
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93"/>
       <c r="B93"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94"/>
       <c r="B94"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95"/>
       <c r="B95"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96"/>
       <c r="B96"/>
     </row>
@@ -2089,7 +2241,16 @@
       <c r="B121"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A23"/>
     <mergeCell ref="A67:A71"/>
     <mergeCell ref="A55:A60"/>
     <mergeCell ref="A62:A66"/>
@@ -2105,13 +2266,6 @@
     <mergeCell ref="C61:E61"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="A37:A41"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DOC/PBN_JDB.xlsx
+++ b/DOC/PBN_JDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -289,6 +289,24 @@
   </si>
   <si>
     <t>Inegration du log la semain prochaine si possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information générale parraport au stage et le deroulement de la sem. com M. Chevillat </t>
+  </si>
+  <si>
+    <t>Implémenté la fonctionalité "Preview" pour les images</t>
+  </si>
+  <si>
+    <t>Débugger le chargement de l'image en applicant une nouvelle logique</t>
+  </si>
+  <si>
+    <t>Chercher intensive sur le net pour comprendre pourquoi le chargement retourne une erreur qui fait crasher le logiciel</t>
+  </si>
+  <si>
+    <t>Rendre fonctionels les deux boutons dédié à l'ouverture de fichier</t>
+  </si>
+  <si>
+    <t>Insertion d'une securité niveau code au cas où l'image "Preview" n'arrive pas à étre chargée</t>
   </si>
 </sst>
 </file>
@@ -648,7 +666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -748,6 +766,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -757,8 +778,74 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -766,74 +853,27 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1147,26 +1187,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="18"/>
+    <col min="1" max="1" width="13.7109375" style="18" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="26" customWidth="1"/>
-    <col min="3" max="3" width="75.28515625" customWidth="1"/>
+    <col min="3" max="3" width="79" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
     <col min="5" max="5" width="55" customWidth="1"/>
     <col min="6" max="6" width="58.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1175,9 +1215,9 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1224,12 +1264,12 @@
         <f>SUM(B8:B13)</f>
         <v>0.10069444444444445</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="49">
+      <c r="A8" s="68">
         <v>43343</v>
       </c>
       <c r="B8" s="27">
@@ -1242,7 +1282,7 @@
       <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="21">
         <v>1.7361111111111112E-2</v>
       </c>
@@ -1255,7 +1295,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="20">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -1266,7 +1306,7 @@
       <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="20">
         <v>1.3888888888888888E-2</v>
       </c>
@@ -1277,7 +1317,7 @@
       <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="20">
         <v>1.7361111111111112E-2</v>
       </c>
@@ -1288,7 +1328,7 @@
       <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="17">
         <v>3.125E-2</v>
       </c>
@@ -1306,14 +1346,14 @@
         <f>SUM(B15:B23)</f>
         <v>0.1875</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49">
+      <c r="A15" s="68">
         <v>43347</v>
       </c>
       <c r="B15" s="25">
@@ -1328,7 +1368,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="20">
         <v>3.4722222222222224E-2</v>
       </c>
@@ -1340,7 +1380,7 @@
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="20">
         <v>1.7361111111111112E-2</v>
       </c>
@@ -1352,7 +1392,7 @@
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="20">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -1365,7 +1405,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="50">
+      <c r="A19" s="69">
         <v>43350</v>
       </c>
       <c r="B19" s="25">
@@ -1378,7 +1418,7 @@
       <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="25">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -1391,7 +1431,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="25">
         <v>6.9444444444444441E-3</v>
       </c>
@@ -1402,7 +1442,7 @@
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="25">
         <v>1.3888888888888888E-2</v>
       </c>
@@ -1413,7 +1453,7 @@
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="20">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -1431,14 +1471,14 @@
         <f>SUM(B25:B34)</f>
         <v>0.1875</v>
       </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="49">
+      <c r="A25" s="68">
         <v>43354</v>
       </c>
       <c r="B25" s="21">
@@ -1453,7 +1493,7 @@
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="21">
         <v>6.9444444444444441E-3</v>
       </c>
@@ -1466,7 +1506,7 @@
       <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -1474,14 +1514,14 @@
         <v>35</v>
       </c>
       <c r="D27" s="16"/>
-      <c r="E27" s="51" t="s">
+      <c r="E27" s="73" t="s">
         <v>36</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="21">
         <v>3.4722222222222224E-2</v>
       </c>
@@ -1489,10 +1529,10 @@
         <v>37</v>
       </c>
       <c r="D28" s="16"/>
-      <c r="E28" s="51"/>
+      <c r="E28" s="73"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="21">
         <v>1.7361111111111112E-2</v>
       </c>
@@ -1500,11 +1540,11 @@
         <v>73</v>
       </c>
       <c r="D29" s="16"/>
-      <c r="E29" s="51"/>
+      <c r="E29" s="73"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50">
+      <c r="A30" s="69">
         <v>43357</v>
       </c>
       <c r="B30" s="21">
@@ -1517,7 +1557,7 @@
       <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -1525,12 +1565,12 @@
         <v>39</v>
       </c>
       <c r="D31" s="16"/>
-      <c r="E31" s="51" t="s">
+      <c r="E31" s="73" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="21">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -1538,10 +1578,10 @@
         <v>41</v>
       </c>
       <c r="D32" s="15"/>
-      <c r="E32" s="51"/>
+      <c r="E32" s="73"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -1549,10 +1589,10 @@
         <v>42</v>
       </c>
       <c r="D33" s="15"/>
-      <c r="E33" s="51"/>
+      <c r="E33" s="73"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
+      <c r="A34" s="70"/>
       <c r="B34" s="21">
         <v>1.3888888888888888E-2</v>
       </c>
@@ -1566,14 +1606,14 @@
       <c r="A35" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="52" t="s">
+      <c r="C35" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="53"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="61"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
@@ -1583,12 +1623,12 @@
         <f>SUM(B37:B47)</f>
         <v>0.1875</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="56"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="59"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="49">
+      <c r="A37" s="68">
         <v>43368</v>
       </c>
       <c r="B37" s="21">
@@ -1605,7 +1645,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -1616,7 +1656,7 @@
       <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="21">
         <v>3.4722222222222224E-2</v>
       </c>
@@ -1629,7 +1669,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="21">
         <v>1.3888888888888888E-2</v>
       </c>
@@ -1640,7 +1680,7 @@
       <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="21">
         <v>3.472222222222222E-3</v>
       </c>
@@ -1651,7 +1691,7 @@
       <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="50">
+      <c r="A42" s="69">
         <v>43371</v>
       </c>
       <c r="B42" s="21">
@@ -1664,7 +1704,7 @@
       <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="21">
         <v>3.4722222222222224E-2</v>
       </c>
@@ -1677,7 +1717,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -1688,7 +1728,7 @@
       <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
+      <c r="A45" s="69"/>
       <c r="B45" s="21">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -1699,7 +1739,7 @@
       <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
+      <c r="A46" s="69"/>
       <c r="B46" s="21">
         <v>1.7361111111111112E-2</v>
       </c>
@@ -1710,7 +1750,7 @@
       <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="47"/>
+      <c r="A47" s="70"/>
       <c r="B47" s="30">
         <v>3.472222222222222E-3</v>
       </c>
@@ -1728,12 +1768,12 @@
         <f>SUM(B49:B60)</f>
         <v>9.3750000000000014E-2</v>
       </c>
-      <c r="C48" s="54"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="56"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="59"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="48">
+      <c r="A49" s="71">
         <v>43375</v>
       </c>
       <c r="B49" s="21">
@@ -1748,7 +1788,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
+      <c r="A50" s="71"/>
       <c r="B50" s="21">
         <v>2.4305555555555556E-2</v>
       </c>
@@ -1761,7 +1801,7 @@
       <c r="E50" s="13"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="48"/>
+      <c r="A51" s="71"/>
       <c r="B51" s="21">
         <v>3.472222222222222E-3</v>
       </c>
@@ -1772,7 +1812,7 @@
       <c r="E51" s="13"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
+      <c r="A52" s="71"/>
       <c r="B52" s="21">
         <v>3.4722222222222224E-2</v>
       </c>
@@ -1783,7 +1823,7 @@
       <c r="E52" s="13"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="48"/>
+      <c r="A53" s="71"/>
       <c r="B53" s="21">
         <v>6.9444444444444441E-3</v>
       </c>
@@ -1791,12 +1831,12 @@
         <v>64</v>
       </c>
       <c r="D53" s="16"/>
-      <c r="E53" s="57" t="s">
+      <c r="E53" s="74" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="21">
         <v>6.9444444444444441E-3</v>
       </c>
@@ -1804,10 +1844,10 @@
         <v>66</v>
       </c>
       <c r="D54" s="16"/>
-      <c r="E54" s="57"/>
+      <c r="E54" s="74"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="47">
+      <c r="A55" s="70">
         <v>43378</v>
       </c>
       <c r="B55" s="21"/>
@@ -1816,35 +1856,35 @@
       <c r="E55" s="29"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
+      <c r="A56" s="71"/>
       <c r="B56" s="21"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
       <c r="E56" s="29"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
+      <c r="A57" s="71"/>
       <c r="B57" s="21"/>
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
       <c r="E57" s="29"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
+      <c r="A58" s="71"/>
       <c r="B58" s="21"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
       <c r="E58" s="29"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
+      <c r="A59" s="71"/>
       <c r="B59" s="21"/>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
       <c r="E59" s="29"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="48"/>
+      <c r="A60" s="71"/>
       <c r="B60" s="21"/>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
@@ -1858,12 +1898,12 @@
         <f>SUM(B62:B71)</f>
         <v>0.12847222222222224</v>
       </c>
-      <c r="C61" s="54"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="56"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="59"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="64">
+      <c r="A62" s="72">
         <v>43382</v>
       </c>
       <c r="B62" s="21">
@@ -1876,7 +1916,7 @@
       <c r="E62" s="13"/>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
+      <c r="A63" s="71"/>
       <c r="B63" s="21">
         <v>6.9444444444444441E-3</v>
       </c>
@@ -1887,7 +1927,7 @@
       <c r="E63" s="13"/>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
+      <c r="A64" s="71"/>
       <c r="B64" s="21">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -1898,7 +1938,7 @@
       <c r="E64" s="13"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="48"/>
+      <c r="A65" s="71"/>
       <c r="B65" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -1909,7 +1949,7 @@
       <c r="E65" s="13"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
+      <c r="A66" s="68"/>
       <c r="B66" s="21">
         <v>1.3888888888888888E-2</v>
       </c>
@@ -1922,7 +1962,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="47">
+      <c r="A67" s="70">
         <v>43385</v>
       </c>
       <c r="B67" s="35">
@@ -1937,7 +1977,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="48"/>
+      <c r="A68" s="71"/>
       <c r="B68" s="38">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -1948,21 +1988,21 @@
       <c r="E68" s="40"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="48"/>
+      <c r="A69" s="71"/>
       <c r="B69" s="39"/>
       <c r="C69" s="39"/>
       <c r="D69" s="39"/>
       <c r="E69" s="40"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="48"/>
+      <c r="A70" s="71"/>
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
       <c r="D70" s="39"/>
       <c r="E70" s="40"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="49"/>
+      <c r="A71" s="68"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41"/>
       <c r="D71" s="41"/>
@@ -1972,75 +2012,75 @@
       <c r="A72" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B72" s="46" t="s">
+      <c r="B72" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="52" t="s">
+      <c r="C72" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D72" s="52"/>
-      <c r="E72" s="53"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="61"/>
     </row>
     <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="65" t="s">
+      <c r="A73" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="B73" s="66">
-        <f>SUM(B74:B85)</f>
+      <c r="B73" s="51">
+        <f>SUM(B74:B83)</f>
         <v>0.1736111111111111</v>
       </c>
-      <c r="C73" s="54"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="56"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="49"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="43">
+      <c r="A74" s="44">
         <v>43404</v>
       </c>
       <c r="B74" s="21">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C74" s="67" t="s">
+      <c r="C74" s="52" t="s">
         <v>86</v>
       </c>
       <c r="D74" s="36"/>
       <c r="E74" s="37"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="44"/>
+      <c r="A75" s="45"/>
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
-      <c r="E75" s="68"/>
+      <c r="E75" s="53"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="44"/>
+      <c r="A76" s="45"/>
       <c r="B76" s="21"/>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
-      <c r="E76" s="68"/>
+      <c r="E76" s="53"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="44"/>
+      <c r="A77" s="45"/>
       <c r="B77" s="21"/>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
-      <c r="E77" s="68"/>
+      <c r="E77" s="53"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="45"/>
-      <c r="B78" s="69"/>
-      <c r="C78" s="70"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="71"/>
+      <c r="A78" s="46"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="56"/>
     </row>
     <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="43">
-        <v>43375</v>
+      <c r="A79" s="44">
+        <v>43406</v>
       </c>
       <c r="B79" s="35">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="C79" s="67" t="s">
+      <c r="C79" s="52" t="s">
         <v>87</v>
       </c>
       <c r="D79" s="36"/>
@@ -2049,7 +2089,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="44"/>
+      <c r="A80" s="45"/>
       <c r="B80" s="21">
         <v>6.9444444444444441E-3</v>
       </c>
@@ -2057,84 +2097,130 @@
         <v>85</v>
       </c>
       <c r="D80" s="16"/>
-      <c r="E80" s="68" t="s">
+      <c r="E80" s="53" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="44"/>
+      <c r="A81" s="45"/>
       <c r="B81" s="21">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="C81" s="16"/>
+      <c r="C81" t="s">
+        <v>91</v>
+      </c>
       <c r="D81" s="16"/>
-      <c r="E81" s="68"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="44"/>
+      <c r="E81" s="53"/>
+    </row>
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="45"/>
       <c r="B82" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="C82" s="16"/>
+      <c r="C82" s="34" t="s">
+        <v>93</v>
+      </c>
       <c r="D82" s="16"/>
-      <c r="E82" s="68"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="45"/>
-      <c r="B83" s="69">
+      <c r="E82" s="53"/>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="46"/>
+      <c r="B83" s="54">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C83" s="70"/>
-      <c r="D83" s="70"/>
-      <c r="E83" s="71"/>
+      <c r="C83" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" s="55"/>
+      <c r="E83" s="56"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84"/>
-      <c r="B84"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85"/>
-      <c r="B85"/>
+      <c r="A84" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="51">
+        <f>SUM(B86:B90)</f>
+        <v>3.8194444444444448E-2</v>
+      </c>
+      <c r="C84" s="47"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="49"/>
+    </row>
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="75">
+        <v>43410</v>
+      </c>
+      <c r="B85" s="76">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C85" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="D85" s="78"/>
+      <c r="E85" s="78"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86"/>
-      <c r="B86"/>
+      <c r="A86" s="79"/>
+      <c r="B86" s="76">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="C86" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="D86" s="78"/>
+      <c r="E86" s="78"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87"/>
-      <c r="B87"/>
+      <c r="A87" s="79"/>
+      <c r="B87" s="76">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C87" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" s="78"/>
+      <c r="E87" s="78"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88"/>
-      <c r="B88"/>
+      <c r="A88" s="79"/>
+      <c r="B88" s="79"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="78"/>
+      <c r="E88" s="78"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89"/>
-      <c r="B89"/>
+      <c r="A89" s="79"/>
+      <c r="B89" s="79"/>
+      <c r="C89" s="79"/>
+      <c r="D89" s="78"/>
+      <c r="E89" s="78"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90"/>
-      <c r="B90"/>
+      <c r="A90" s="79"/>
+      <c r="B90" s="79"/>
+      <c r="C90" s="79"/>
+      <c r="D90" s="78"/>
+      <c r="E90" s="78"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91"/>
-      <c r="B91"/>
+      <c r="A91" s="26"/>
+      <c r="C91" s="26"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92"/>
-      <c r="B92"/>
+      <c r="A92" s="26"/>
+      <c r="C92" s="26"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93"/>
-      <c r="B93"/>
+      <c r="A93" s="26"/>
+      <c r="C93" s="26"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94"/>
-      <c r="B94"/>
+      <c r="A94" s="26"/>
+      <c r="C94" s="26"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95"/>
-      <c r="B95"/>
+      <c r="A95" s="26"/>
+      <c r="C95" s="26"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96"/>
@@ -2241,8 +2327,15 @@
       <c r="B121"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C73:E73"/>
+  <mergeCells count="23">
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="E53:E54"/>
     <mergeCell ref="C72:E72"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="A1:C2"/>
@@ -2258,14 +2351,6 @@
     <mergeCell ref="E27:E29"/>
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="E31:E33"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="A37:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DOC/PBN_JDB.xlsx
+++ b/DOC/PBN_JDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
   <si>
     <t>Date</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Explication des deux maquettes</t>
   </si>
   <si>
-    <t>Discution avec Philipe sur le CDC, la maquette et les scénarios, répartition des tâches</t>
-  </si>
-  <si>
     <t>Certains points ne sont pas claire, ou innutile, ou manquant. Essayons de prendre le point de vue le plus claire et utile pour le client</t>
   </si>
   <si>
@@ -138,18 +135,12 @@
     <t>Relécture et correction des fautes du CDC, Ajout et suppréssion de points</t>
   </si>
   <si>
-    <t xml:space="preserve">Discution avec Philippe sur plusieurs points </t>
-  </si>
-  <si>
     <t>Nommez  le client dans la doc ? (non). Plusieurs changement de fonctionnalités (innutiles, redondante ou pas néccessaire)</t>
   </si>
   <si>
     <t xml:space="preserve">Ecriture de nouveaux use-case </t>
   </si>
   <si>
-    <t>Soucis de version avec github, réglage avec Philippe</t>
-  </si>
-  <si>
     <t>Mise en place finale du CDC en pdf</t>
   </si>
   <si>
@@ -162,9 +153,6 @@
     <t>M.Chevillat verra à modifier plusieurs choses lors d'un futur camp dans 2 ans</t>
   </si>
   <si>
-    <t>Discussion avec Philipe sur la répartition des tâches</t>
-  </si>
-  <si>
     <t>Etudes sur les moyens de recherche dans les dossier</t>
   </si>
   <si>
@@ -180,9 +168,6 @@
     <t xml:space="preserve">Théorie avec Monsieur Hurnis </t>
   </si>
   <si>
-    <t>Modulage du projet avec Philippe</t>
-  </si>
-  <si>
     <t>Site de gestion de projet façon scrum</t>
   </si>
   <si>
@@ -213,9 +198,6 @@
     <t>Rédaction de la partie analyse préliminaire de la documentation</t>
   </si>
   <si>
-    <t>Discution avec Philipe sur le travail fait et à faire</t>
-  </si>
-  <si>
     <t>Mise en place de nombreux documents dans des dossiers séparés et bien nommé</t>
   </si>
   <si>
@@ -307,6 +289,33 @@
   </si>
   <si>
     <t>Insertion d'une securité niveau code au cas où l'image "Preview" n'arrive pas à étre chargée</t>
+  </si>
+  <si>
+    <t>Discution avec Quentin sur le CDC, la maquette et les scénarios, répartition des tâches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discution avec Quentin sur plusieurs points </t>
+  </si>
+  <si>
+    <t>Soucis de version avec github, réglage avec Quentin</t>
+  </si>
+  <si>
+    <t>Modulage du projet avec Quentin</t>
+  </si>
+  <si>
+    <t>Discussion avec Quentin sur la répartition des tâches</t>
+  </si>
+  <si>
+    <t>Discution avec Quentin sur le travail fait et à faire</t>
+  </si>
+  <si>
+    <t>Créer deux fonction separée pour permetre la recherche sans filtre Ex. Toutes les images sans nom specifique</t>
+  </si>
+  <si>
+    <t>Le bouton clear supprime aussi la preview image</t>
+  </si>
+  <si>
+    <t>Implémemtation du filtre "Date"</t>
   </si>
 </sst>
 </file>
@@ -808,60 +817,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -874,6 +829,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1187,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,11 +1211,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="64"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1215,9 +1224,9 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="67"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="72"/>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1264,12 +1273,12 @@
         <f>SUM(B8:B13)</f>
         <v>0.10069444444444445</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="66"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="68">
+      <c r="A8" s="73">
         <v>43343</v>
       </c>
       <c r="B8" s="27">
@@ -1282,7 +1291,7 @@
       <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="21">
         <v>1.7361111111111112E-2</v>
       </c>
@@ -1295,7 +1304,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="20">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -1306,7 +1315,7 @@
       <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="20">
         <v>1.3888888888888888E-2</v>
       </c>
@@ -1317,7 +1326,7 @@
       <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="20">
         <v>1.7361111111111112E-2</v>
       </c>
@@ -1328,7 +1337,7 @@
       <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="70"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="17">
         <v>3.125E-2</v>
       </c>
@@ -1346,14 +1355,14 @@
         <f>SUM(B15:B23)</f>
         <v>0.1875</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="68">
+      <c r="A15" s="73">
         <v>43347</v>
       </c>
       <c r="B15" s="25">
@@ -1367,8 +1376,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="74"/>
       <c r="B16" s="20">
         <v>3.4722222222222224E-2</v>
       </c>
@@ -1380,7 +1389,7 @@
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="20">
         <v>1.7361111111111112E-2</v>
       </c>
@@ -1392,7 +1401,7 @@
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="20">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -1405,7 +1414,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="69">
+      <c r="A19" s="74">
         <v>43350</v>
       </c>
       <c r="B19" s="25">
@@ -1418,7 +1427,7 @@
       <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="25">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -1431,7 +1440,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="25">
         <v>6.9444444444444441E-3</v>
       </c>
@@ -1442,7 +1451,7 @@
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="25">
         <v>1.3888888888888888E-2</v>
       </c>
@@ -1453,7 +1462,7 @@
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="70"/>
+      <c r="A23" s="75"/>
       <c r="B23" s="20">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -1471,14 +1480,14 @@
         <f>SUM(B25:B34)</f>
         <v>0.1875</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="66"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="68">
+      <c r="A25" s="73">
         <v>43354</v>
       </c>
       <c r="B25" s="21">
@@ -1493,7 +1502,7 @@
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="21">
         <v>6.9444444444444441E-3</v>
       </c>
@@ -1505,349 +1514,349 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="69"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="74"/>
       <c r="B27" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="78" t="s">
         <v>35</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="73" t="s">
-        <v>36</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="69"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="21">
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="16"/>
-      <c r="E28" s="73"/>
+      <c r="E28" s="78"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="21">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D29" s="16"/>
-      <c r="E29" s="73"/>
+      <c r="E29" s="78"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="69">
+      <c r="A30" s="74">
         <v>43357</v>
       </c>
       <c r="B30" s="21">
         <v>3.8194444444444441E-2</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="69"/>
+      <c r="A31" s="74"/>
       <c r="B31" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="D31" s="16"/>
-      <c r="E31" s="73" t="s">
-        <v>40</v>
+      <c r="E31" s="78" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
+      <c r="A32" s="74"/>
       <c r="B32" s="21">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D32" s="15"/>
-      <c r="E32" s="73"/>
+      <c r="E32" s="78"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
+      <c r="A33" s="74"/>
       <c r="B33" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="D33" s="15"/>
-      <c r="E33" s="73"/>
+      <c r="E33" s="78"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="70"/>
+      <c r="A34" s="75"/>
       <c r="B34" s="21">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="13"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="60"/>
-      <c r="E35" s="61"/>
+        <v>69</v>
+      </c>
+      <c r="C35" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="62"/>
+      <c r="E35" s="63"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B36" s="22">
         <f>SUM(B37:B47)</f>
         <v>0.1875</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="59"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="66"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="68">
+      <c r="A37" s="73">
         <v>43368</v>
       </c>
       <c r="B37" s="21">
         <v>3.125E-2</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="69"/>
+      <c r="A39" s="74"/>
       <c r="B39" s="21">
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="69"/>
+      <c r="A40" s="74"/>
       <c r="B40" s="21">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="69"/>
+      <c r="A41" s="74"/>
       <c r="B41" s="21">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="69">
+      <c r="A42" s="74">
         <v>43371</v>
       </c>
       <c r="B42" s="21">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="69"/>
+      <c r="A43" s="74"/>
       <c r="B43" s="21">
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="69"/>
+      <c r="A44" s="74"/>
       <c r="B44" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="69"/>
+      <c r="A45" s="74"/>
       <c r="B45" s="21">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="69"/>
+      <c r="A46" s="74"/>
       <c r="B46" s="21">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="70"/>
+      <c r="A47" s="75"/>
       <c r="B47" s="30">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="33"/>
     </row>
     <row r="48" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B48" s="22">
         <f>SUM(B49:B60)</f>
         <v>9.3750000000000014E-2</v>
       </c>
-      <c r="C48" s="57"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="59"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="66"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="71">
+      <c r="A49" s="76">
         <v>43375</v>
       </c>
       <c r="B49" s="21">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="71"/>
+      <c r="A50" s="76"/>
       <c r="B50" s="21">
         <v>2.4305555555555556E-2</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E50" s="13"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="71"/>
+      <c r="A51" s="76"/>
       <c r="B51" s="21">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="13"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
+      <c r="A52" s="76"/>
       <c r="B52" s="21">
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="13"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="71"/>
+      <c r="A53" s="76"/>
       <c r="B53" s="21">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D53" s="16"/>
-      <c r="E53" s="74" t="s">
-        <v>65</v>
+      <c r="E53" s="79" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="68"/>
+      <c r="A54" s="73"/>
       <c r="B54" s="21">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D54" s="16"/>
-      <c r="E54" s="74"/>
+      <c r="E54" s="79"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="70">
+      <c r="A55" s="75">
         <v>43378</v>
       </c>
       <c r="B55" s="21"/>
@@ -1856,35 +1865,35 @@
       <c r="E55" s="29"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="71"/>
+      <c r="A56" s="76"/>
       <c r="B56" s="21"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
       <c r="E56" s="29"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="71"/>
+      <c r="A57" s="76"/>
       <c r="B57" s="21"/>
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
       <c r="E57" s="29"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="71"/>
+      <c r="A58" s="76"/>
       <c r="B58" s="21"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
       <c r="E58" s="29"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="71"/>
+      <c r="A59" s="76"/>
       <c r="B59" s="21"/>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
       <c r="E59" s="29"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="71"/>
+      <c r="A60" s="76"/>
       <c r="B60" s="21"/>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
@@ -1892,117 +1901,117 @@
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="24" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B61" s="22">
         <f>SUM(B62:B71)</f>
         <v>0.12847222222222224</v>
       </c>
-      <c r="C61" s="57"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="59"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="66"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="72">
+      <c r="A62" s="77">
         <v>43382</v>
       </c>
       <c r="B62" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D62" s="16"/>
       <c r="E62" s="13"/>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="71"/>
+      <c r="A63" s="76"/>
       <c r="B63" s="21">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D63" s="16"/>
       <c r="E63" s="13"/>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="71"/>
+      <c r="A64" s="76"/>
       <c r="B64" s="21">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D64" s="16"/>
       <c r="E64" s="13"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="71"/>
+      <c r="A65" s="76"/>
       <c r="B65" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D65" s="16"/>
       <c r="E65" s="13"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="68"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="21">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D66" s="16"/>
       <c r="E66" s="13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="70">
+      <c r="A67" s="75">
         <v>43385</v>
       </c>
       <c r="B67" s="35">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C67" s="36" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D67" s="36"/>
       <c r="E67" s="37" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="71"/>
+      <c r="A68" s="76"/>
       <c r="B68" s="38">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D68" s="39"/>
       <c r="E68" s="40"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="71"/>
+      <c r="A69" s="76"/>
       <c r="B69" s="39"/>
       <c r="C69" s="39"/>
       <c r="D69" s="39"/>
       <c r="E69" s="40"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="71"/>
+      <c r="A70" s="76"/>
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
       <c r="D70" s="39"/>
       <c r="E70" s="40"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="68"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41"/>
       <c r="D71" s="41"/>
@@ -2010,20 +2019,20 @@
     </row>
     <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="D72" s="60"/>
-      <c r="E72" s="61"/>
+        <v>69</v>
+      </c>
+      <c r="C72" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="62"/>
+      <c r="E72" s="63"/>
     </row>
     <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="50" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B73" s="51">
         <f>SUM(B74:B83)</f>
@@ -2041,14 +2050,16 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C74" s="52" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D74" s="36"/>
       <c r="E74" s="37"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="45"/>
-      <c r="C75" s="16"/>
+      <c r="C75" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D75" s="16"/>
       <c r="E75" s="53"/>
     </row>
@@ -2081,11 +2092,11 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="C79" s="52" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D79" s="36"/>
       <c r="E79" s="37" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2094,11 +2105,11 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="53" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2107,7 +2118,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="C81" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="53"/>
@@ -2118,7 +2129,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="53"/>
@@ -2129,14 +2140,14 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D83" s="55"/>
       <c r="E83" s="56"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="50" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B84" s="51">
         <f>SUM(B86:B90)</f>
@@ -2147,60 +2158,66 @@
       <c r="E84" s="49"/>
     </row>
     <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="75">
+      <c r="A85" s="57">
         <v>43410</v>
       </c>
-      <c r="B85" s="76">
+      <c r="B85" s="58">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="C85" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="D85" s="78"/>
-      <c r="E85" s="78"/>
+      <c r="C85" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" s="60"/>
+      <c r="E85" s="60"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="79"/>
-      <c r="B86" s="76">
+      <c r="A86" s="61"/>
+      <c r="B86" s="58">
         <v>2.4305555555555556E-2</v>
       </c>
-      <c r="C86" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="D86" s="78"/>
-      <c r="E86" s="78"/>
+      <c r="C86" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" s="60"/>
+      <c r="E86" s="60"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="79"/>
-      <c r="B87" s="76">
+      <c r="A87" s="61"/>
+      <c r="B87" s="58">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C87" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D87" s="78"/>
-      <c r="E87" s="78"/>
+      <c r="C87" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="79"/>
-      <c r="B88" s="79"/>
-      <c r="C88" s="79"/>
-      <c r="D88" s="78"/>
-      <c r="E88" s="78"/>
+      <c r="A88" s="57">
+        <v>43410</v>
+      </c>
+      <c r="B88" s="61"/>
+      <c r="C88" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="79"/>
-      <c r="B89" s="79"/>
-      <c r="C89" s="79"/>
-      <c r="D89" s="78"/>
-      <c r="E89" s="78"/>
+      <c r="A89" s="61"/>
+      <c r="B89" s="61"/>
+      <c r="C89" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="D89" s="60"/>
+      <c r="E89" s="60"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="79"/>
-      <c r="B90" s="79"/>
-      <c r="C90" s="79"/>
-      <c r="D90" s="78"/>
-      <c r="E90" s="78"/>
+      <c r="A90" s="61"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="60"/>
+      <c r="E90" s="60"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="26"/>
@@ -2328,14 +2345,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="E53:E54"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="A42:A47"/>
     <mergeCell ref="C48:E48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="E53:E54"/>
     <mergeCell ref="C72:E72"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="A1:C2"/>
@@ -2351,6 +2367,7 @@
     <mergeCell ref="E27:E29"/>
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="E31:E33"/>
+    <mergeCell ref="C61:E61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DOC/PBN_JDB.xlsx
+++ b/DOC/PBN_JDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -316,6 +316,39 @@
   </si>
   <si>
     <t>Implémemtation du filtre "Date"</t>
+  </si>
+  <si>
+    <t>Discution avec Quentin sur l'avancé respective du projet</t>
+  </si>
+  <si>
+    <t>Discusion avec le professeur et Quentin</t>
+  </si>
+  <si>
+    <t>Semaine 8</t>
+  </si>
+  <si>
+    <t>Semaine 9</t>
+  </si>
+  <si>
+    <t>Implementation d'une animation de chargement pour créer un retour visuel à l'utilisateur</t>
+  </si>
+  <si>
+    <t>Instalation du package NuGet "CircularProgressBar"</t>
+  </si>
+  <si>
+    <t>Migré la fonction de recherche en tache d'arriere plan</t>
+  </si>
+  <si>
+    <t>Créer un code plus (+) orienté objet : )</t>
+  </si>
+  <si>
+    <t>Disscusion: en fonction des absenses de Quentin nous avons reorganiser les taches restantes</t>
+  </si>
+  <si>
+    <t>Securisation des controles (eviter de trigger des erreurs non gérer)</t>
+  </si>
+  <si>
+    <t>Creation de la fonctionalité / onglet log</t>
   </si>
 </sst>
 </file>
@@ -675,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -830,6 +863,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -883,6 +925,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1194,28 +1248,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="18" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="26" customWidth="1"/>
-    <col min="3" max="3" width="79" customWidth="1"/>
+    <col min="3" max="3" width="81.85546875" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
     <col min="5" max="5" width="55" customWidth="1"/>
     <col min="6" max="6" width="58.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="72"/>
       <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1224,9 +1278,9 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1273,12 +1327,12 @@
         <f>SUM(B8:B13)</f>
         <v>0.10069444444444445</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="73">
+      <c r="A8" s="76">
         <v>43343</v>
       </c>
       <c r="B8" s="27">
@@ -1291,7 +1345,7 @@
       <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="74"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="21">
         <v>1.7361111111111112E-2</v>
       </c>
@@ -1304,7 +1358,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="74"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="20">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -1315,7 +1369,7 @@
       <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="74"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="20">
         <v>1.3888888888888888E-2</v>
       </c>
@@ -1326,7 +1380,7 @@
       <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="20">
         <v>1.7361111111111112E-2</v>
       </c>
@@ -1337,7 +1391,7 @@
       <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="75"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="17">
         <v>3.125E-2</v>
       </c>
@@ -1355,14 +1409,14 @@
         <f>SUM(B15:B23)</f>
         <v>0.1875</v>
       </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73">
+      <c r="A15" s="76">
         <v>43347</v>
       </c>
       <c r="B15" s="25">
@@ -1377,7 +1431,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="20">
         <v>3.4722222222222224E-2</v>
       </c>
@@ -1389,7 +1443,7 @@
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="20">
         <v>1.7361111111111112E-2</v>
       </c>
@@ -1401,7 +1455,7 @@
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="20">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -1414,7 +1468,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="74">
+      <c r="A19" s="77">
         <v>43350</v>
       </c>
       <c r="B19" s="25">
@@ -1427,7 +1481,7 @@
       <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="25">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -1440,7 +1494,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="74"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="25">
         <v>6.9444444444444441E-3</v>
       </c>
@@ -1451,7 +1505,7 @@
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="74"/>
+      <c r="A22" s="77"/>
       <c r="B22" s="25">
         <v>1.3888888888888888E-2</v>
       </c>
@@ -1462,7 +1516,7 @@
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="75"/>
+      <c r="A23" s="78"/>
       <c r="B23" s="20">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -1480,14 +1534,14 @@
         <f>SUM(B25:B34)</f>
         <v>0.1875</v>
       </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="66"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="73">
+      <c r="A25" s="76">
         <v>43354</v>
       </c>
       <c r="B25" s="21">
@@ -1502,7 +1556,7 @@
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="74"/>
+      <c r="A26" s="77"/>
       <c r="B26" s="21">
         <v>6.9444444444444441E-3</v>
       </c>
@@ -1515,7 +1569,7 @@
       <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="74"/>
+      <c r="A27" s="77"/>
       <c r="B27" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -1523,14 +1577,14 @@
         <v>90</v>
       </c>
       <c r="D27" s="16"/>
-      <c r="E27" s="78" t="s">
+      <c r="E27" s="81" t="s">
         <v>35</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="74"/>
+      <c r="A28" s="77"/>
       <c r="B28" s="21">
         <v>3.4722222222222224E-2</v>
       </c>
@@ -1538,10 +1592,10 @@
         <v>36</v>
       </c>
       <c r="D28" s="16"/>
-      <c r="E28" s="78"/>
+      <c r="E28" s="81"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="74"/>
+      <c r="A29" s="77"/>
       <c r="B29" s="21">
         <v>1.7361111111111112E-2</v>
       </c>
@@ -1549,11 +1603,11 @@
         <v>67</v>
       </c>
       <c r="D29" s="16"/>
-      <c r="E29" s="78"/>
+      <c r="E29" s="81"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="74">
+      <c r="A30" s="77">
         <v>43357</v>
       </c>
       <c r="B30" s="21">
@@ -1566,7 +1620,7 @@
       <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="74"/>
+      <c r="A31" s="77"/>
       <c r="B31" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -1574,12 +1628,12 @@
         <v>91</v>
       </c>
       <c r="D31" s="16"/>
-      <c r="E31" s="78" t="s">
+      <c r="E31" s="81" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="74"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="21">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -1587,10 +1641,10 @@
         <v>39</v>
       </c>
       <c r="D32" s="15"/>
-      <c r="E32" s="78"/>
+      <c r="E32" s="81"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="74"/>
+      <c r="A33" s="77"/>
       <c r="B33" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -1598,10 +1652,10 @@
         <v>92</v>
       </c>
       <c r="D33" s="15"/>
-      <c r="E33" s="78"/>
+      <c r="E33" s="81"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="75"/>
+      <c r="A34" s="78"/>
       <c r="B34" s="21">
         <v>1.3888888888888888E-2</v>
       </c>
@@ -1618,11 +1672,11 @@
       <c r="B35" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="62"/>
-      <c r="E35" s="63"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="66"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
@@ -1632,12 +1686,12 @@
         <f>SUM(B37:B47)</f>
         <v>0.1875</v>
       </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="66"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="69"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="73">
+      <c r="A37" s="76">
         <v>43368</v>
       </c>
       <c r="B37" s="21">
@@ -1654,7 +1708,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="74"/>
+      <c r="A38" s="77"/>
       <c r="B38" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -1665,7 +1719,7 @@
       <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="74"/>
+      <c r="A39" s="77"/>
       <c r="B39" s="21">
         <v>3.4722222222222224E-2</v>
       </c>
@@ -1678,7 +1732,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="74"/>
+      <c r="A40" s="77"/>
       <c r="B40" s="21">
         <v>1.3888888888888888E-2</v>
       </c>
@@ -1689,7 +1743,7 @@
       <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="74"/>
+      <c r="A41" s="77"/>
       <c r="B41" s="21">
         <v>3.472222222222222E-3</v>
       </c>
@@ -1700,7 +1754,7 @@
       <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="74">
+      <c r="A42" s="77">
         <v>43371</v>
       </c>
       <c r="B42" s="21">
@@ -1713,7 +1767,7 @@
       <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="74"/>
+      <c r="A43" s="77"/>
       <c r="B43" s="21">
         <v>3.4722222222222224E-2</v>
       </c>
@@ -1726,7 +1780,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="74"/>
+      <c r="A44" s="77"/>
       <c r="B44" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -1737,7 +1791,7 @@
       <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="74"/>
+      <c r="A45" s="77"/>
       <c r="B45" s="21">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -1748,7 +1802,7 @@
       <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="74"/>
+      <c r="A46" s="77"/>
       <c r="B46" s="21">
         <v>1.7361111111111112E-2</v>
       </c>
@@ -1759,7 +1813,7 @@
       <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="75"/>
+      <c r="A47" s="78"/>
       <c r="B47" s="30">
         <v>3.472222222222222E-3</v>
       </c>
@@ -1777,12 +1831,12 @@
         <f>SUM(B49:B60)</f>
         <v>9.3750000000000014E-2</v>
       </c>
-      <c r="C48" s="64"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="66"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="69"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="76">
+      <c r="A49" s="79">
         <v>43375</v>
       </c>
       <c r="B49" s="21">
@@ -1797,7 +1851,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="76"/>
+      <c r="A50" s="79"/>
       <c r="B50" s="21">
         <v>2.4305555555555556E-2</v>
       </c>
@@ -1810,7 +1864,7 @@
       <c r="E50" s="13"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="76"/>
+      <c r="A51" s="79"/>
       <c r="B51" s="21">
         <v>3.472222222222222E-3</v>
       </c>
@@ -1821,7 +1875,7 @@
       <c r="E51" s="13"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="76"/>
+      <c r="A52" s="79"/>
       <c r="B52" s="21">
         <v>3.4722222222222224E-2</v>
       </c>
@@ -1832,7 +1886,7 @@
       <c r="E52" s="13"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="76"/>
+      <c r="A53" s="79"/>
       <c r="B53" s="21">
         <v>6.9444444444444441E-3</v>
       </c>
@@ -1840,12 +1894,12 @@
         <v>95</v>
       </c>
       <c r="D53" s="16"/>
-      <c r="E53" s="79" t="s">
+      <c r="E53" s="82" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="73"/>
+      <c r="A54" s="76"/>
       <c r="B54" s="21">
         <v>6.9444444444444441E-3</v>
       </c>
@@ -1853,10 +1907,10 @@
         <v>60</v>
       </c>
       <c r="D54" s="16"/>
-      <c r="E54" s="79"/>
+      <c r="E54" s="82"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="75">
+      <c r="A55" s="78">
         <v>43378</v>
       </c>
       <c r="B55" s="21"/>
@@ -1865,35 +1919,35 @@
       <c r="E55" s="29"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="76"/>
+      <c r="A56" s="79"/>
       <c r="B56" s="21"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
       <c r="E56" s="29"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="76"/>
+      <c r="A57" s="79"/>
       <c r="B57" s="21"/>
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
       <c r="E57" s="29"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="76"/>
+      <c r="A58" s="79"/>
       <c r="B58" s="21"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
       <c r="E58" s="29"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="76"/>
+      <c r="A59" s="79"/>
       <c r="B59" s="21"/>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
       <c r="E59" s="29"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="76"/>
+      <c r="A60" s="79"/>
       <c r="B60" s="21"/>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
@@ -1907,12 +1961,12 @@
         <f>SUM(B62:B71)</f>
         <v>0.12847222222222224</v>
       </c>
-      <c r="C61" s="64"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="66"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="69"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="77">
+      <c r="A62" s="80">
         <v>43382</v>
       </c>
       <c r="B62" s="21">
@@ -1925,7 +1979,7 @@
       <c r="E62" s="13"/>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="76"/>
+      <c r="A63" s="79"/>
       <c r="B63" s="21">
         <v>6.9444444444444441E-3</v>
       </c>
@@ -1936,7 +1990,7 @@
       <c r="E63" s="13"/>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="76"/>
+      <c r="A64" s="79"/>
       <c r="B64" s="21">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -1947,7 +2001,7 @@
       <c r="E64" s="13"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="76"/>
+      <c r="A65" s="79"/>
       <c r="B65" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -1958,7 +2012,7 @@
       <c r="E65" s="13"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="73"/>
+      <c r="A66" s="76"/>
       <c r="B66" s="21">
         <v>1.3888888888888888E-2</v>
       </c>
@@ -1971,7 +2025,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="75">
+      <c r="A67" s="78">
         <v>43385</v>
       </c>
       <c r="B67" s="35">
@@ -1986,7 +2040,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="76"/>
+      <c r="A68" s="79"/>
       <c r="B68" s="38">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -1997,21 +2051,21 @@
       <c r="E68" s="40"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="76"/>
+      <c r="A69" s="79"/>
       <c r="B69" s="39"/>
       <c r="C69" s="39"/>
       <c r="D69" s="39"/>
       <c r="E69" s="40"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="76"/>
+      <c r="A70" s="79"/>
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
       <c r="D70" s="39"/>
       <c r="E70" s="40"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="73"/>
+      <c r="A71" s="76"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41"/>
       <c r="D71" s="41"/>
@@ -2024,11 +2078,11 @@
       <c r="B72" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="62" t="s">
+      <c r="C72" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="D72" s="62"/>
-      <c r="E72" s="63"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="66"/>
     </row>
     <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="50" t="s">
@@ -2105,7 +2159,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="53" t="s">
@@ -2147,7 +2201,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="50" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B84" s="51">
         <f>SUM(B86:B90)</f>
@@ -2212,98 +2266,147 @@
       <c r="D89" s="60"/>
       <c r="E89" s="60"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="61"/>
       <c r="B90" s="61"/>
-      <c r="C90" s="61"/>
+      <c r="C90" s="61" t="s">
+        <v>100</v>
+      </c>
       <c r="D90" s="60"/>
-      <c r="E90" s="60"/>
+      <c r="E90" s="60" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="26"/>
-      <c r="C91" s="26"/>
+      <c r="A91" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" s="51">
+        <f>SUM(B93:B98)</f>
+        <v>90.079861111111128</v>
+      </c>
+      <c r="C91" s="62"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="64"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="26"/>
-      <c r="C92" s="26"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="26"/>
-      <c r="C93" s="26"/>
+      <c r="A92" s="84">
+        <v>43461</v>
+      </c>
+      <c r="B92" s="26">
+        <v>45</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="26">
+        <v>90</v>
+      </c>
+      <c r="C93" s="85" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="26"/>
-      <c r="C94" s="26"/>
+      <c r="A94" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" s="51">
+        <f>SUM(B96:B101)</f>
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="C94" s="62"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="64"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="26"/>
-      <c r="C95" s="26"/>
+      <c r="A95" s="83">
+        <v>43438</v>
+      </c>
+      <c r="B95" s="86">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96"/>
-      <c r="B96"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97"/>
-      <c r="B97"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98"/>
-      <c r="B98"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="26"/>
+      <c r="B96" s="86">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="26"/>
+      <c r="C97" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="26"/>
+      <c r="C98" s="26"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99"/>
       <c r="B99"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100"/>
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101"/>
       <c r="B101"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103"/>
       <c r="B103"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105"/>
       <c r="B105"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107"/>
       <c r="B107"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109"/>
       <c r="B109"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110"/>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111"/>
       <c r="B111"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112"/>
       <c r="B112"/>
     </row>
@@ -2342,6 +2445,18 @@
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121"/>
       <c r="B121"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122"/>
+      <c r="B122"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123"/>
+      <c r="B123"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124"/>
+      <c r="B124"/>
     </row>
   </sheetData>
   <mergeCells count="23">

--- a/DOC/PBN_JDB.xlsx
+++ b/DOC/PBN_JDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="123">
   <si>
     <t>Date</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Un googledoc en commun à été crée</t>
   </si>
   <si>
-    <t>DesktopSearch,  SMF, Everything, …</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ecriture du cahier des charges </t>
   </si>
   <si>
@@ -81,18 +78,12 @@
     <t>Lecture des informations sur les uses-case</t>
   </si>
   <si>
-    <t xml:space="preserve">Copernic desktop search, SMF </t>
-  </si>
-  <si>
     <t xml:space="preserve">Création d'un Github et mise en place de celui-ci, avec GitHub Desktop </t>
   </si>
   <si>
     <t>Rédaction du journal de bord pour les deux premières semaines</t>
   </si>
   <si>
-    <t>Discution sur le choix du language pour la création du projet (C#)</t>
-  </si>
-  <si>
     <t>Introduction du problème de l'utilisateur et du projet</t>
   </si>
   <si>
@@ -174,18 +165,9 @@
     <t xml:space="preserve">Création du IceScrum </t>
   </si>
   <si>
-    <t>Rédaction des Users Story</t>
-  </si>
-  <si>
     <t>Compréhension du site et de son fonctionnement, création du premier sprint</t>
   </si>
   <si>
-    <t>Lecture de documentations sur LINQ</t>
-  </si>
-  <si>
-    <t>Semble être efficace mais test nécessaire</t>
-  </si>
-  <si>
     <t>Mise en place de l'écriture dans un fichier</t>
   </si>
   <si>
@@ -207,18 +189,6 @@
     <t xml:space="preserve">Information générale par M. Chevillat </t>
   </si>
   <si>
-    <t>Ecriture du log</t>
-  </si>
-  <si>
-    <t>Lecture de l'url</t>
-  </si>
-  <si>
-    <t>Lecture du log</t>
-  </si>
-  <si>
-    <t>Fait, mais à adapter au code principale.</t>
-  </si>
-  <si>
     <t>en cours</t>
   </si>
   <si>
@@ -243,9 +213,6 @@
     <t>Semaine 5</t>
   </si>
   <si>
-    <t>Semaine 4</t>
-  </si>
-  <si>
     <t>Semaine X</t>
   </si>
   <si>
@@ -324,9 +291,6 @@
     <t>Discusion avec le professeur et Quentin</t>
   </si>
   <si>
-    <t>Semaine 8</t>
-  </si>
-  <si>
     <t>Semaine 9</t>
   </si>
   <si>
@@ -348,7 +312,82 @@
     <t>Securisation des controles (eviter de trigger des erreurs non gérer)</t>
   </si>
   <si>
-    <t>Creation de la fonctionalité / onglet log</t>
+    <t>Commentaire Code</t>
+  </si>
+  <si>
+    <t>Modification Date</t>
+  </si>
+  <si>
+    <t>Semaine 10</t>
+  </si>
+  <si>
+    <t>Modification de l'interface de l'onglet Log pour pouvoir inserer les données du log plus tard</t>
+  </si>
+  <si>
+    <t>Finition du projet, relecture de la documentation et envoi</t>
+  </si>
+  <si>
+    <t>Semaine 13</t>
+  </si>
+  <si>
+    <t>Semaine 11</t>
+  </si>
+  <si>
+    <t>Semaine 12</t>
+  </si>
+  <si>
+    <t>Semaine 15</t>
+  </si>
+  <si>
+    <t>Semaine 14</t>
+  </si>
+  <si>
+    <t>Meeting avec Quentin sur l'avancée du projet</t>
+  </si>
+  <si>
+    <t>Discution et remise à jour du règlement de la formation avec M.Chevillat</t>
+  </si>
+  <si>
+    <t>Discution sur les portes ouvertes et les differentes partie à montrer</t>
+  </si>
+  <si>
+    <t>Pour eviter de tout retrouver son code dans le "Main"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expliqué à Quentin comment créer des classes sous C# </t>
+  </si>
+  <si>
+    <t>Migrer son Code à l'interieur d'une nouvelle classe</t>
+  </si>
+  <si>
+    <t>Mise à jour des tâches sur trello</t>
+  </si>
+  <si>
+    <t>Discution sur le choix du language pour la création du projet (C# / Windows Forms)</t>
+  </si>
+  <si>
+    <t>Rédaction des Users Stories</t>
+  </si>
+  <si>
+    <t>Lecture de la documentations de LinQ</t>
+  </si>
+  <si>
+    <t>Beaucoup + performant que parcourir manuelemment les fichiers</t>
+  </si>
+  <si>
+    <t>Implementation d'un filtre pourla recherche à l'interieur de fichier Excel</t>
+  </si>
+  <si>
+    <t>Implementation d'un filtre pourla recherche à l'interieur de fichier Word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche sur la manière la + efficase d'extraire du texte de fichier MS Office </t>
+  </si>
+  <si>
+    <t>Factorisation du Code à travers la classe Search</t>
+  </si>
+  <si>
+    <t>Oublie (remarqué lorsdu control final de la doc)</t>
   </si>
 </sst>
 </file>
@@ -394,7 +433,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -692,15 +731,79 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -708,7 +811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -789,154 +892,268 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1248,10 +1465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,17 +1476,17 @@
     <col min="1" max="1" width="13.7109375" style="18" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="26" customWidth="1"/>
     <col min="3" max="3" width="81.85546875" customWidth="1"/>
-    <col min="4" max="4" width="44" customWidth="1"/>
+    <col min="4" max="4" width="50.5703125" customWidth="1"/>
     <col min="5" max="5" width="55" customWidth="1"/>
     <col min="6" max="6" width="58.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
       <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1278,14 +1495,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1327,25 +1544,25 @@
         <f>SUM(B8:B13)</f>
         <v>0.10069444444444445</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="76">
+      <c r="A8" s="54">
         <v>43343</v>
       </c>
       <c r="B8" s="27">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="21">
         <v>1.7361111111111112E-2</v>
       </c>
@@ -1358,7 +1575,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="20">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -1369,34 +1586,34 @@
       <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="20">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="20">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="78"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="17">
         <v>3.125E-2</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="13"/>
@@ -1409,146 +1626,142 @@
         <f>SUM(B15:B23)</f>
         <v>0.1875</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76">
+      <c r="A15" s="54">
         <v>43347</v>
       </c>
       <c r="B15" s="25">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="20">
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="13"/>
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="20">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="13"/>
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="77"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="20">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="77">
+      <c r="A19" s="55">
         <v>43350</v>
       </c>
       <c r="B19" s="25">
         <v>3.125E-2</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="25">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="10"/>
-      <c r="E20" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="77"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="25">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="77"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="25">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="78"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="20">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="14"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B24" s="22">
         <f>SUM(B25:B34)</f>
         <v>0.1875</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="76">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="54">
         <v>43354</v>
       </c>
       <c r="B25" s="21">
         <v>2.4305555555555556E-2</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="29"/>
@@ -1556,12 +1769,12 @@
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="77"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="21">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="13"/>
@@ -1569,844 +1782,949 @@
       <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="77"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D27" s="16"/>
-      <c r="E27" s="81" t="s">
-        <v>35</v>
+      <c r="E27" s="59" t="s">
+        <v>32</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="77"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="21">
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D28" s="16"/>
-      <c r="E28" s="81"/>
+      <c r="E28" s="59"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="77"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="21">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D29" s="16"/>
-      <c r="E29" s="81"/>
+      <c r="E29" s="59"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77">
+      <c r="A30" s="55">
         <v>43357</v>
       </c>
       <c r="B30" s="21">
         <v>3.8194444444444441E-2</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="77"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D31" s="16"/>
-      <c r="E31" s="81" t="s">
-        <v>38</v>
+      <c r="E31" s="59" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="21">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D32" s="15"/>
-      <c r="E32" s="81"/>
+      <c r="E32" s="59"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="77"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D33" s="15"/>
-      <c r="E33" s="81"/>
+      <c r="E33" s="59"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="78"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="21">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="13"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="65"/>
-      <c r="E35" s="66"/>
+        <v>64</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="43"/>
+      <c r="E35" s="44"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B36" s="22">
         <f>SUM(B37:B47)</f>
         <v>0.1875</v>
       </c>
-      <c r="C36" s="67"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="69"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="47"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="76">
+      <c r="A37" s="54">
         <v>43368</v>
       </c>
       <c r="B37" s="21">
         <v>3.125E-2</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="77"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="77"/>
+      <c r="A39" s="55"/>
       <c r="B39" s="21">
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="77"/>
+      <c r="A40" s="55"/>
       <c r="B40" s="21">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="77"/>
+      <c r="A41" s="55"/>
       <c r="B41" s="21">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="77">
+      <c r="A42" s="55">
         <v>43371</v>
       </c>
       <c r="B42" s="21">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="77"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="21">
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="77"/>
+      <c r="A44" s="55"/>
       <c r="B44" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="77"/>
+      <c r="A45" s="55"/>
       <c r="B45" s="21">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="77"/>
+      <c r="A46" s="55"/>
       <c r="B46" s="21">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="78"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="30">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="33"/>
     </row>
     <row r="48" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B48" s="22">
-        <f>SUM(B49:B60)</f>
+        <f>SUM(B49:B55)</f>
         <v>9.3750000000000014E-2</v>
       </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="69"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="79">
+      <c r="C48" s="45"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="47"/>
+    </row>
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="57">
         <v>43375</v>
       </c>
       <c r="B49" s="21">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="13" t="s">
-        <v>54</v>
+      <c r="C49" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="83"/>
+      <c r="E49" s="84" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="79"/>
+      <c r="A50" s="57"/>
       <c r="B50" s="21">
         <v>2.4305555555555556E-2</v>
       </c>
-      <c r="C50" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50" s="13"/>
+      <c r="C50" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="84"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="79"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="21">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="C51" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" s="16"/>
-      <c r="E51" s="13"/>
+      <c r="C51" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="83"/>
+      <c r="E51" s="84"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="79"/>
+      <c r="A52" s="57"/>
       <c r="B52" s="21">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="C52" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="13"/>
+      <c r="C52" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="83"/>
+      <c r="E52" s="84"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="79"/>
+      <c r="A53" s="57"/>
       <c r="B53" s="21">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="C53" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="82" t="s">
-        <v>59</v>
+      <c r="C53" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="83"/>
+      <c r="E53" s="98" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="76"/>
+      <c r="A54" s="54"/>
       <c r="B54" s="21">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="83"/>
+      <c r="E54" s="98"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="73">
+        <v>43378</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="83"/>
+      <c r="E55" s="84"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="22">
+        <f>SUM(B57:B61)</f>
+        <v>0.12847222222222224</v>
+      </c>
+      <c r="C56" s="90"/>
+      <c r="D56" s="91"/>
+      <c r="E56" s="92"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="58">
+        <v>43382</v>
+      </c>
+      <c r="B57" s="21">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C57" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="93"/>
+      <c r="E57" s="94"/>
+    </row>
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="57"/>
+      <c r="B58" s="21">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C58" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="93"/>
+      <c r="E58" s="94"/>
+    </row>
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="57"/>
+      <c r="B59" s="21">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="C59" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="D59" s="93"/>
+      <c r="E59" s="94"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="73">
+        <v>43385</v>
+      </c>
+      <c r="B60" s="34">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C60" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="D54" s="16"/>
-      <c r="E54" s="82"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="78">
-        <v>43378</v>
-      </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="29"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="79"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="29"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="79"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="29"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="79"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="29"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="79"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="29"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="79"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="29"/>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="24" t="s">
+      <c r="D60" s="95"/>
+      <c r="E60" s="96" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="79"/>
+      <c r="B61" s="35">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C61" s="87" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="88"/>
+      <c r="E61" s="89"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" s="99"/>
+      <c r="E62" s="100"/>
+    </row>
+    <row r="63" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="28">
+        <f>SUM(B64:B70)</f>
+        <v>0.1736111111111111</v>
+      </c>
+      <c r="C63" s="101"/>
+      <c r="D63" s="102"/>
+      <c r="E63" s="103"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="40">
+        <v>43404</v>
+      </c>
+      <c r="B64" s="21">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C64" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="83"/>
+      <c r="E64" s="84"/>
+    </row>
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="40"/>
+      <c r="C65" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="83"/>
+      <c r="E65" s="84"/>
+    </row>
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="42">
+        <v>43406</v>
+      </c>
+      <c r="B66" s="34">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C66" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" s="85"/>
+      <c r="E66" s="86" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="40"/>
+      <c r="B67" s="21">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C67" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="83"/>
+      <c r="E67" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="22">
-        <f>SUM(B62:B71)</f>
-        <v>0.12847222222222224</v>
-      </c>
-      <c r="C61" s="67"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="69"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="80">
-        <v>43382</v>
-      </c>
-      <c r="B62" s="21">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="40"/>
+      <c r="B68" s="21">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="C68" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" s="83"/>
+      <c r="E68" s="84"/>
+    </row>
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="40"/>
+      <c r="B69" s="21">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="C62" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" s="16"/>
-      <c r="E62" s="13"/>
-    </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="79"/>
-      <c r="B63" s="21">
+      <c r="C69" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" s="83"/>
+      <c r="E69" s="84"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="41"/>
+      <c r="B70" s="37">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C70" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="106"/>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" s="22">
+        <f>SUM(B73:B77)</f>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="C71" s="101"/>
+      <c r="D71" s="102"/>
+      <c r="E71" s="103"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="77">
+        <v>43410</v>
+      </c>
+      <c r="B72" s="62">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="C63" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D63" s="16"/>
-      <c r="E63" s="13"/>
-    </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="79"/>
-      <c r="B64" s="21">
-        <v>5.2083333333333336E-2</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D64" s="16"/>
-      <c r="E64" s="13"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="79"/>
-      <c r="B65" s="21">
+      <c r="C72" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" s="88"/>
+      <c r="E72" s="89"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="64"/>
+      <c r="B73" s="62">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="C73" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" s="88"/>
+      <c r="E73" s="89"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="65"/>
+      <c r="B74" s="62">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C74" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="88"/>
+      <c r="E74" s="89"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="63">
+        <v>43413</v>
+      </c>
+      <c r="B75" s="120">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="C75" s="112" t="s">
+        <v>86</v>
+      </c>
+      <c r="D75" s="112"/>
+      <c r="E75" s="121"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="64"/>
+      <c r="B76" s="62">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="C76" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D76" s="88"/>
+      <c r="E76" s="122"/>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="64"/>
+      <c r="B77" s="62">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C77" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D77" s="88"/>
+      <c r="E77" s="122" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" s="22">
+        <f>SUM(B79:B80)</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="C78" s="107"/>
+      <c r="D78" s="108"/>
+      <c r="E78" s="109"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="39">
+        <v>43419</v>
+      </c>
+      <c r="B79" s="69">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C79" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="D79" s="88"/>
+      <c r="E79" s="89"/>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="60">
+        <v>43420</v>
+      </c>
+      <c r="B80" s="68"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="88"/>
+      <c r="E80" s="89"/>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" s="22">
+        <f>SUM(B82:B84)</f>
+        <v>5.2083333333333329E-2</v>
+      </c>
+      <c r="C81" s="108"/>
+      <c r="D81" s="102"/>
+      <c r="E81" s="103"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="80">
+        <v>43424</v>
+      </c>
+      <c r="B82" s="78">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="C65" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D65" s="16"/>
-      <c r="E65" s="13"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="76"/>
-      <c r="B66" s="21">
+      <c r="C82" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="D82" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="E82" s="89"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="76"/>
+      <c r="B83" s="75">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C83" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="D83" s="110"/>
+      <c r="E83" s="111"/>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="73">
+        <v>43426</v>
+      </c>
+      <c r="B84" s="66">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C84" s="112" t="s">
+        <v>113</v>
+      </c>
+      <c r="D84" s="112"/>
+      <c r="E84" s="113"/>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85" s="22">
+        <f>SUM(B86:B87)</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="C85" s="101"/>
+      <c r="D85" s="102"/>
+      <c r="E85" s="103"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="40">
+        <v>43431</v>
+      </c>
+      <c r="B86" s="78">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C86" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="88"/>
+      <c r="E86" s="89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="70"/>
+      <c r="B87" s="75">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C87" s="114" t="s">
+        <v>93</v>
+      </c>
+      <c r="D87" s="110"/>
+      <c r="E87" s="111"/>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="42">
+        <v>43433</v>
+      </c>
+      <c r="B88" s="71"/>
+      <c r="C88" s="112"/>
+      <c r="D88" s="112"/>
+      <c r="E88" s="113"/>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89" s="22">
+        <f>SUM(B91:B94)</f>
+        <v>0.12847222222222221</v>
+      </c>
+      <c r="C89" s="101"/>
+      <c r="D89" s="108"/>
+      <c r="E89" s="109"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="77">
+        <v>43438</v>
+      </c>
+      <c r="B90" s="69">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C90" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="D90" s="88"/>
+      <c r="E90" s="89"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="65"/>
+      <c r="B91" s="72">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="C91" s="110" t="s">
+        <v>96</v>
+      </c>
+      <c r="D91" s="110"/>
+      <c r="E91" s="111"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="64"/>
+      <c r="B92" s="69"/>
+      <c r="C92" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="D92" s="88"/>
+      <c r="E92" s="89"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="73">
+        <v>43440</v>
+      </c>
+      <c r="B93" s="66">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="C93" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="D93" s="112"/>
+      <c r="E93" s="113"/>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="79"/>
+      <c r="B94" s="69">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C66" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D66" s="16"/>
-      <c r="E66" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="78">
-        <v>43385</v>
-      </c>
-      <c r="B67" s="35">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C67" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D67" s="36"/>
-      <c r="E67" s="37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="79"/>
-      <c r="B68" s="38">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C68" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D68" s="39"/>
-      <c r="E68" s="40"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="79"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="40"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="79"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="40"/>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="76"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="42"/>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="D72" s="65"/>
-      <c r="E72" s="66"/>
-    </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" s="51">
-        <f>SUM(B74:B83)</f>
-        <v>0.1736111111111111</v>
-      </c>
-      <c r="C73" s="47"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="49"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="44">
-        <v>43404</v>
-      </c>
-      <c r="B74" s="21">
+      <c r="C94" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="D94" s="88"/>
+      <c r="E94" s="89"/>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" s="22">
+        <f>SUM(B97:B101)</f>
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C95" s="107"/>
+      <c r="D95" s="108"/>
+      <c r="E95" s="109"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="40">
+        <v>43445</v>
+      </c>
+      <c r="B96" s="69">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C74" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="D74" s="36"/>
-      <c r="E74" s="37"/>
-    </row>
-    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="45"/>
-      <c r="C75" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D75" s="16"/>
-      <c r="E75" s="53"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="45"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="53"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="45"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="53"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="46"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="55"/>
-      <c r="D78" s="55"/>
-      <c r="E78" s="56"/>
-    </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="44">
-        <v>43406</v>
-      </c>
-      <c r="B79" s="35">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="C79" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="D79" s="36"/>
-      <c r="E79" s="37" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="45"/>
-      <c r="B80" s="21">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D80" s="16"/>
-      <c r="E80" s="53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="45"/>
-      <c r="B81" s="21">
-        <v>5.2083333333333336E-2</v>
-      </c>
-      <c r="C81" t="s">
-        <v>85</v>
-      </c>
-      <c r="D81" s="16"/>
-      <c r="E81" s="53"/>
-    </row>
-    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="45"/>
-      <c r="B82" s="21">
+      <c r="C96" s="115" t="s">
+        <v>119</v>
+      </c>
+      <c r="D96" s="88"/>
+      <c r="E96" s="89"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="70"/>
+      <c r="B97" s="69">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="C82" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D82" s="16"/>
-      <c r="E82" s="53"/>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="46"/>
-      <c r="B83" s="54">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D83" s="55"/>
-      <c r="E83" s="56"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="50" t="s">
+      <c r="C97" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="D97" s="88"/>
+      <c r="E97" s="89"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="97">
+        <v>43447</v>
+      </c>
+      <c r="B98" s="74">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C98" s="115" t="s">
+        <v>118</v>
+      </c>
+      <c r="D98" s="112"/>
+      <c r="E98" s="116"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="68"/>
+      <c r="B99" s="69">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C99" s="117" t="s">
+        <v>98</v>
+      </c>
+      <c r="D99" s="88"/>
+      <c r="E99" s="118"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="67"/>
+      <c r="B100" s="72">
+        <v>0.125</v>
+      </c>
+      <c r="C100" s="114" t="s">
+        <v>97</v>
+      </c>
+      <c r="D100" s="114"/>
+      <c r="E100" s="119"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="38">
+        <v>43448</v>
+      </c>
+      <c r="B101" s="72">
+        <v>0.125</v>
+      </c>
+      <c r="C101" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="B84" s="51">
-        <f>SUM(B86:B90)</f>
-        <v>3.8194444444444448E-2</v>
-      </c>
-      <c r="C84" s="47"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="49"/>
-    </row>
-    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="57">
-        <v>43410</v>
-      </c>
-      <c r="B85" s="58">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="C85" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="D85" s="60"/>
-      <c r="E85" s="60"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="61"/>
-      <c r="B86" s="58">
-        <v>2.4305555555555556E-2</v>
-      </c>
-      <c r="C86" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="D86" s="60"/>
-      <c r="E86" s="60"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="61"/>
-      <c r="B87" s="58">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C87" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="D87" s="60"/>
-      <c r="E87" s="60"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="57">
-        <v>43410</v>
-      </c>
-      <c r="B88" s="61"/>
-      <c r="C88" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="D88" s="60"/>
-      <c r="E88" s="60"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="61"/>
-      <c r="B89" s="61"/>
-      <c r="C89" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="D89" s="60"/>
-      <c r="E89" s="60"/>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="61"/>
-      <c r="B90" s="61"/>
-      <c r="C90" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="60"/>
-      <c r="E90" s="60" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="B91" s="51">
-        <f>SUM(B93:B98)</f>
-        <v>90.079861111111128</v>
-      </c>
-      <c r="C91" s="62"/>
-      <c r="D91" s="63"/>
-      <c r="E91" s="64"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="84">
-        <v>43461</v>
-      </c>
-      <c r="B92" s="26">
-        <v>45</v>
-      </c>
-      <c r="C92" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="D92" s="39"/>
-      <c r="E92" s="39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="26">
-        <v>90</v>
-      </c>
-      <c r="C93" s="85" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="B94" s="51">
-        <f>SUM(B96:B101)</f>
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="C94" s="62"/>
-      <c r="D94" s="63"/>
-      <c r="E94" s="64"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="83">
-        <v>43438</v>
-      </c>
-      <c r="B95" s="86">
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="C95" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="26"/>
-      <c r="B96" s="86">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="C96" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="26"/>
-      <c r="C97" s="26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="26"/>
-      <c r="C98" s="26"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99"/>
-      <c r="B99"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100"/>
-      <c r="B100"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101"/>
-      <c r="B101"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" s="110"/>
+      <c r="E101" s="111"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102"/>
-      <c r="B102"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="18"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103"/>
       <c r="B103"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105"/>
       <c r="B105"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107"/>
       <c r="B107"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109"/>
       <c r="B109"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110"/>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111"/>
       <c r="B111"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112"/>
       <c r="B112"/>
     </row>
@@ -2446,20 +2764,8 @@
       <c r="A121"/>
       <c r="B121"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122"/>
-      <c r="B122"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123"/>
-      <c r="B123"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124"/>
-      <c r="B124"/>
-    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="21">
     <mergeCell ref="A49:A54"/>
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="C36:E36"/>
@@ -2467,7 +2773,7 @@
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="A42:A47"/>
     <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C62:E62"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="C7:E7"/>
@@ -2475,15 +2781,14 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A57:A59"/>
     <mergeCell ref="A25:A29"/>
     <mergeCell ref="E27:E29"/>
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="E31:E33"/>
-    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C56:E56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>